--- a/diagrams/dataTypes.xlsx
+++ b/diagrams/dataTypes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\моё добро\проекты\dreamORM\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED397D0-99D2-4137-B192-8654B9374CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6659311-FEDE-4646-B415-6597BEFCF2B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6090" yWindow="2355" windowWidth="12780" windowHeight="15420" xr2:uid="{B96C4FE6-7905-47D2-9E9B-1426BAC4A2E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B96C4FE6-7905-47D2-9E9B-1426BAC4A2E6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="SQL" sheetId="1" r:id="rId1"/>
+    <sheet name="MongoDB" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
   <si>
     <t>SQL type</t>
   </si>
@@ -222,13 +223,121 @@
   </si>
   <si>
     <t>DECIMAL/DEC(size, d)</t>
+  </si>
+  <si>
+    <t>Mongo type</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>ObjectID</t>
+  </si>
+  <si>
+    <t>Binary data</t>
+  </si>
+  <si>
+    <t>Regular expression</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Array&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>RegExp</t>
+  </si>
+  <si>
+    <t>Integer (32/64 bit)</t>
+  </si>
+  <si>
+    <t>Undefined</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>DBPointer</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>JavaScript code with scope</t>
+  </si>
+  <si>
+    <t>JavaScript code, yeah</t>
+  </si>
+  <si>
+    <t>Decimal128</t>
+  </si>
+  <si>
+    <t>Min key</t>
+  </si>
+  <si>
+    <t>Max key</t>
+  </si>
+  <si>
+    <t>12 bytes, includes: 4-byte timestamp, 5-byte random value, 3-byte counter, initialized to a random value</t>
+  </si>
+  <si>
+    <t>UTF-8</t>
+  </si>
+  <si>
+    <t>For internal MongoDB use, shouldn't be used</t>
+  </si>
+  <si>
+    <t>Min / Max keys are implemented for comparing a value adjacent to the lowest as well as highest BSON elements.</t>
+  </si>
+  <si>
+    <t>For emmbeded documents</t>
+  </si>
+  <si>
+    <t>Object/ &lt;T&gt; ?</t>
+  </si>
+  <si>
+    <t>Deprecated</t>
+  </si>
+  <si>
+    <t>Deprecated in MongoDB 4.4</t>
+  </si>
+  <si>
+    <t>Base64 binary, it seems</t>
+  </si>
+  <si>
+    <t>Well, there is a lib for decimals: https://github.com/MikeMcl/decimal.js/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,13 +363,26 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -402,10 +524,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -424,9 +547,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -740,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F4F10C-6162-49AD-A07A-9CDC694C6A28}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,4 +1201,223 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEBECC3-278A-4065-8F1D-E29F3FBB59D6}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="92.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C19:C20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/diagrams/dataTypes.xlsx
+++ b/diagrams/dataTypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\моё добро\проекты\dreamORM\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6659311-FEDE-4646-B415-6597BEFCF2B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38E88CC-73BB-43E3-BE65-0342C2411E53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B96C4FE6-7905-47D2-9E9B-1426BAC4A2E6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="102">
   <si>
     <t>SQL type</t>
   </si>
@@ -255,15 +255,9 @@
     <t>Date</t>
   </si>
   <si>
-    <t>ObjectID</t>
-  </si>
-  <si>
     <t>Binary data</t>
   </si>
   <si>
-    <t>Regular expression</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
@@ -273,9 +267,6 @@
     <t>RegExp</t>
   </si>
   <si>
-    <t>Integer (32/64 bit)</t>
-  </si>
-  <si>
     <t>Undefined</t>
   </si>
   <si>
@@ -285,9 +276,6 @@
     <t>DBPointer</t>
   </si>
   <si>
-    <t>JavaScript</t>
-  </si>
-  <si>
     <t>JavaScript code with scope</t>
   </si>
   <si>
@@ -330,7 +318,25 @@
     <t>Base64 binary, it seems</t>
   </si>
   <si>
-    <t>Well, there is a lib for decimals: https://github.com/MikeMcl/decimal.js/</t>
+    <t>Int32/Int64</t>
+  </si>
+  <si>
+    <t>BSONMap</t>
+  </si>
+  <si>
+    <t>BSONSymbol</t>
+  </si>
+  <si>
+    <t>BSONRegexp</t>
+  </si>
+  <si>
+    <t>ObjectId</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Well, there is a lib for decimals: https://github.com/MikeMcl/decimal.js/, there's also mongodb.Decimal128</t>
   </si>
 </sst>
 </file>
@@ -528,7 +534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -541,17 +547,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -871,7 +883,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C33"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,11 +905,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1034,11 +1046,11 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1141,11 +1153,11 @@
       <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -1205,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEBECC3-278A-4065-8F1D-E29F3FBB59D6}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,12 +1249,12 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>24</v>
@@ -1272,16 +1284,16 @@
         <v>68</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C7" s="7"/>
     </row>
@@ -1290,26 +1302,26 @@
         <v>71</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16" t="s">
-        <v>92</v>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1317,105 +1329,114 @@
         <v>70</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16" t="s">
-        <v>96</v>
+      <c r="A12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C13" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>87</v>
+      <c r="A14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="7" t="s">
-        <v>99</v>
+      <c r="C15" s="18" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>72</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B16" s="6"/>
       <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>90</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="17" t="s">
-        <v>93</v>
+        <v>99</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="17"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="10"/>
+      <c r="A21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C20:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/diagrams/dataTypes.xlsx
+++ b/diagrams/dataTypes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\моё добро\проекты\dreamORM\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38E88CC-73BB-43E3-BE65-0342C2411E53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8893F9C-597D-4D2A-B85C-B52A1201962E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B96C4FE6-7905-47D2-9E9B-1426BAC4A2E6}"/>
+    <workbookView xWindow="16020" yWindow="180" windowWidth="12780" windowHeight="15420" activeTab="1" xr2:uid="{B96C4FE6-7905-47D2-9E9B-1426BAC4A2E6}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="1" r:id="rId1"/>
@@ -336,7 +336,7 @@
     <t>Code</t>
   </si>
   <si>
-    <t>Well, there is a lib for decimals: https://github.com/MikeMcl/decimal.js/, there's also mongodb.Decimal128</t>
+    <t>Well, there is a lib for decimals: https://github.com/MikeMcl/decimal.js-light/, there's also mongodb.Decimal128</t>
   </si>
 </sst>
 </file>
@@ -550,6 +550,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -558,12 +564,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -905,11 +905,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1046,11 +1046,11 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1153,11 +1153,11 @@
       <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -1219,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEBECC3-278A-4065-8F1D-E29F3FBB59D6}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,11 +1365,11 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="16" t="s">
         <v>83</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="15" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
         <v>84</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="19" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
         <v>85</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="17"/>
+      <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">

--- a/diagrams/dataTypes.xlsx
+++ b/diagrams/dataTypes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\моё добро\проекты\dreamORM\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8893F9C-597D-4D2A-B85C-B52A1201962E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CC09A4-ACE0-4F87-A3A4-AA2BECFE94A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16020" yWindow="180" windowWidth="12780" windowHeight="15420" activeTab="1" xr2:uid="{B96C4FE6-7905-47D2-9E9B-1426BAC4A2E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B96C4FE6-7905-47D2-9E9B-1426BAC4A2E6}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="1" r:id="rId1"/>
@@ -291,9 +291,6 @@
     <t>Max key</t>
   </si>
   <si>
-    <t>12 bytes, includes: 4-byte timestamp, 5-byte random value, 3-byte counter, initialized to a random value</t>
-  </si>
-  <si>
     <t>UTF-8</t>
   </si>
   <si>
@@ -306,9 +303,6 @@
     <t>For emmbeded documents</t>
   </si>
   <si>
-    <t>Object/ &lt;T&gt; ?</t>
-  </si>
-  <si>
     <t>Deprecated</t>
   </si>
   <si>
@@ -337,13 +331,44 @@
   </si>
   <si>
     <t>Well, there is a lib for decimals: https://github.com/MikeMcl/decimal.js-light/, there's also mongodb.Decimal128</t>
+  </si>
+  <si>
+    <t>Object / &lt;T&gt; ?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12 bytes, includes: 4-byte timestamp, 5-byte random value, 3-byte counter, initialized to a random value. Mongoose treats it as any. Possibly should be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>readonly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and not appear in the entity itself, although debatable</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +397,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1219,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEBECC3-278A-4065-8F1D-E29F3FBB59D6}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,12 +1283,12 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>24</v>
@@ -1312,7 +1346,7 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1321,7 +1355,7 @@
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1329,10 +1363,10 @@
         <v>70</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1341,12 +1375,12 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>23</v>
@@ -1361,7 +1395,7 @@
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1370,19 +1404,19 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>72</v>
@@ -1398,15 +1432,15 @@
       </c>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1415,7 +1449,7 @@
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1427,7 +1461,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>77</v>
